--- a/xlsx/思想_intext.xlsx
+++ b/xlsx/思想_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
   <si>
     <t>思想</t>
   </si>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -107,43 +107,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -167,43 +167,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -215,19 +215,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -299,19 +299,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%99%BA%E7%97%87</t>
@@ -401,19 +401,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -497,19 +497,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>知覺</t>
+    <t>知觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
   </si>
   <si>
-    <t>企劃</t>
+    <t>企划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>解決問題</t>
+    <t>解决问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Arthur_L._Benton</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
   </si>
   <si>
-    <t>費尼斯·蓋吉</t>
+    <t>费尼斯·盖吉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
   </si>
   <si>
-    <t>亨利·莫萊森</t>
+    <t>亨利·莫莱森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
@@ -707,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>斯特魯普效應</t>
+    <t>斯特鲁普效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>魏氏智力測驗</t>
+    <t>魏氏智力测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
@@ -749,25 +749,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
+    <t>人类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經科學</t>
+    <t>神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
@@ -779,19 +776,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
+    <t>认知科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E6%A8%A1%E5%9E%8B</t>
@@ -845,37 +842,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%B8%B9%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>羅丹美術館</t>
+    <t>罗丹美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神哲學</t>
+    <t>精神哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E6%B5%B7%E5%BE%B7%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>馬丁·海德格爾</t>
+    <t>马丁·海德格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E8%88%87%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>存在與時間</t>
+    <t>存在与时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E9%9D%88</t>
   </si>
   <si>
-    <t>心靈</t>
+    <t>心灵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/mental_event</t>
@@ -893,39 +890,33 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>意識</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%89%A9%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>心物問題</t>
+    <t>心物问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%83</t>
   </si>
   <si>
-    <t>神經元</t>
+    <t>神经元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>神經系統</t>
+    <t>神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
+    <t>细胞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6</t>
   </si>
   <si>
-    <t>腦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E6%A4%8E%E5%8A%A8%E7%89%A9</t>
   </si>
   <si>
@@ -953,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A6%BA%E7%A5%9E%E7%B6%93%E5%85%83</t>
   </si>
   <si>
-    <t>感覺神經元</t>
+    <t>感觉神经元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9F%E8%A6%BA%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>感覺系統</t>
+    <t>感觉系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%BA</t>
@@ -971,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E7%A5%9E%E7%B6%93%E5%85%83</t>
   </si>
   <si>
-    <t>中間神經元</t>
+    <t>中间神经元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E6%BF%80</t>
@@ -983,19 +974,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>問題</t>
+    <t>问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>認知主義</t>
+    <t>认知主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A7%91%E6%96%AF%C2%B7%E9%9F%8B%E7%89%B9%E5%A2%A8</t>
   </si>
   <si>
-    <t>馬科斯·韋特墨</t>
+    <t>马科斯·韦特墨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E5%A4%AB%E5%86%88%C2%B7%E8%8B%9B%E5%8B%92</t>
@@ -1019,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93%C2%B7%E7%9A%AE%E4%BA%9E%E5%82%91</t>
   </si>
   <si>
-    <t>讓·皮亞傑</t>
+    <t>让·皮亚杰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90%E5%AD%A6</t>
@@ -1055,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>心理結構</t>
+    <t>心理结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E</t>
@@ -1091,13 +1082,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
+    <t>维基词典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1109,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -5024,7 +5015,7 @@
         <v>245</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>3</v>
       </c>
       <c r="G123" t="n">
         <v>64</v>
@@ -5050,10 +5041,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>6</v>
@@ -5079,10 +5070,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>9</v>
@@ -5108,10 +5099,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5137,10 +5128,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5166,10 +5157,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5195,10 +5186,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5224,10 +5215,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5253,10 +5244,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>73</v>
@@ -5311,10 +5302,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5340,10 +5331,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>9</v>
@@ -5369,10 +5360,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -5398,10 +5389,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5427,10 +5418,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5456,10 +5447,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5485,10 +5476,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5514,10 +5505,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>4</v>
@@ -5543,10 +5534,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5572,10 +5563,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5601,10 +5592,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5630,10 +5621,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>250</v>
+      </c>
+      <c r="F144" t="s">
         <v>251</v>
-      </c>
-      <c r="F144" t="s">
-        <v>252</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5659,10 +5650,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -5688,10 +5679,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5717,10 +5708,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5746,10 +5737,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5775,10 +5766,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5804,10 +5795,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>9</v>
@@ -5833,10 +5824,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -5862,10 +5853,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5891,10 +5882,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="G153" t="n">
         <v>9</v>
@@ -5920,10 +5911,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5949,10 +5940,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5978,10 +5969,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6007,10 +5998,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6036,10 +6027,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6065,10 +6056,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6094,10 +6085,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6123,10 +6114,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6152,10 +6143,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6181,10 +6172,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -6210,10 +6201,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6239,10 +6230,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6268,10 +6259,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6297,10 +6288,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6326,10 +6317,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6355,10 +6346,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6384,10 +6375,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6413,10 +6404,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6442,10 +6433,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6471,10 +6462,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6500,10 +6491,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6529,10 +6520,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6558,10 +6549,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G176" t="n">
         <v>9</v>
@@ -6587,10 +6578,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6616,10 +6607,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6645,10 +6636,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6674,10 +6665,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6703,10 +6694,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6732,10 +6723,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -6761,10 +6752,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6790,10 +6781,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6819,10 +6810,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>

--- a/xlsx/思想_intext.xlsx
+++ b/xlsx/思想_intext.xlsx
@@ -29,7 +29,7 @@
     <t>心理学</t>
   </si>
   <si>
-    <t>政策_政策_计划_思想</t>
+    <t>体育运动_体育运动_文化_思想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%A4%A7%E7%BA%B2</t>
